--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -166,10 +166,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,66 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>CQDGObservationCauseOfDeath</t>
+  </si>
+  <si>
+    <t>Ferlab.bio StructureDefinition/cause-of-death</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>null#Cause-of-Death</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>CQDGObservationDiseaseStatus</t>
+  </si>
+  <si>
+    <t>Ferlab.bio StructureDefinition/disease-status</t>
+  </si>
+  <si>
+    <t>null#Disease-Status</t>
+  </si>
+  <si>
+    <t>CQDGObservationFamilyRelationship</t>
+  </si>
+  <si>
+    <t>Ferlab.bio StructureDefinition/family-relationship</t>
+  </si>
+  <si>
+    <t>null#Family-relationship</t>
+  </si>
+  <si>
+    <t>CQDGObservationPhenotype</t>
+  </si>
+  <si>
+    <t>Ferlab.bio StructureDefinition/phenotype</t>
+  </si>
+  <si>
+    <t>null#Phenotype</t>
+  </si>
+  <si>
+    <t>CQDGObservationTumorNormalDesignation</t>
+  </si>
+  <si>
+    <t>Ferlab.bio StructureDefinition/tumor-normal-designation</t>
+  </si>
+  <si>
+    <t>null#Tumor-normal-designation</t>
   </si>
 </sst>
 </file>
@@ -178,7 +238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +279,181 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t>null#Cause-of-Death</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
